--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H2">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I2">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J2">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>1015.982990746587</v>
+        <v>5051.930525340592</v>
       </c>
       <c r="R2">
-        <v>9143.846916719283</v>
+        <v>45467.37472806533</v>
       </c>
       <c r="S2">
-        <v>0.001300577722856127</v>
+        <v>0.005599367320927548</v>
       </c>
       <c r="T2">
-        <v>0.001300577722856127</v>
+        <v>0.005599367320927548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H3">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I3">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J3">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>1560.858436565352</v>
+        <v>4160.298780764948</v>
       </c>
       <c r="R3">
-        <v>14047.72592908817</v>
+        <v>37442.68902688454</v>
       </c>
       <c r="S3">
-        <v>0.001998082378955181</v>
+        <v>0.004611116665492835</v>
       </c>
       <c r="T3">
-        <v>0.001998082378955181</v>
+        <v>0.004611116665492834</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H4">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I4">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J4">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>779.9500479426481</v>
+        <v>2400.208087549776</v>
       </c>
       <c r="R4">
-        <v>7019.550431483833</v>
+        <v>21601.87278794798</v>
       </c>
       <c r="S4">
-        <v>0.0009984277950848006</v>
+        <v>0.002660299198779291</v>
       </c>
       <c r="T4">
-        <v>0.0009984277950848006</v>
+        <v>0.002660299198779291</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H5">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I5">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J5">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>1241.429120508825</v>
+        <v>2426.021532540636</v>
       </c>
       <c r="R5">
-        <v>11172.86208457943</v>
+        <v>21834.19379286572</v>
       </c>
       <c r="S5">
-        <v>0.001589175284767508</v>
+        <v>0.002688909837741441</v>
       </c>
       <c r="T5">
-        <v>0.001589175284767508</v>
+        <v>0.002688909837741441</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H6">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I6">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J6">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>623.596828865382</v>
+        <v>1827.355683109321</v>
       </c>
       <c r="R6">
-        <v>5612.371459788438</v>
+        <v>16446.20114798389</v>
       </c>
       <c r="S6">
-        <v>0.0007982772852034235</v>
+        <v>0.002025371418785246</v>
       </c>
       <c r="T6">
-        <v>0.0007982772852034235</v>
+        <v>0.002025371418785246</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H7">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I7">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J7">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>818.6403343194901</v>
+        <v>3057.32388355343</v>
       </c>
       <c r="R7">
-        <v>7367.763008875411</v>
+        <v>27515.91495198087</v>
       </c>
       <c r="S7">
-        <v>0.001047955912199899</v>
+        <v>0.003388621311633387</v>
       </c>
       <c r="T7">
-        <v>0.001047955912199899</v>
+        <v>0.003388621311633386</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I8">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J8">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>122151.5637028262</v>
+        <v>227881.4413757063</v>
       </c>
       <c r="R8">
-        <v>1099364.073325436</v>
+        <v>2050932.972381357</v>
       </c>
       <c r="S8">
-        <v>0.1563683683790751</v>
+        <v>0.2525751075721636</v>
       </c>
       <c r="T8">
-        <v>0.1563683683790751</v>
+        <v>0.2525751075721636</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I9">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J9">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>187661.9003287647</v>
@@ -1013,10 +1013,10 @@
         <v>1688957.102958882</v>
       </c>
       <c r="S9">
-        <v>0.2402293042495585</v>
+        <v>0.2079973005989043</v>
       </c>
       <c r="T9">
-        <v>0.2402293042495585</v>
+        <v>0.2079973005989043</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I10">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J10">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>93773.3395480162</v>
+        <v>108268.0919400797</v>
       </c>
       <c r="R10">
-        <v>843960.0559321459</v>
+        <v>974412.8274607174</v>
       </c>
       <c r="S10">
-        <v>0.1200409037599658</v>
+        <v>0.1200002282033739</v>
       </c>
       <c r="T10">
-        <v>0.1200409037599658</v>
+        <v>0.1200002282033739</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I11">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J11">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>149256.9360683331</v>
+        <v>109432.4794988324</v>
       </c>
       <c r="R11">
-        <v>1343312.424614998</v>
+        <v>984892.3154894919</v>
       </c>
       <c r="S11">
-        <v>0.1910664330015874</v>
+        <v>0.1212907910115264</v>
       </c>
       <c r="T11">
-        <v>0.1910664330015875</v>
+        <v>0.1212907910115263</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I12">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J12">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>74975.00298706254</v>
+        <v>82427.98369539458</v>
       </c>
       <c r="R12">
-        <v>674775.026883563</v>
+        <v>741851.8532585512</v>
       </c>
       <c r="S12">
-        <v>0.09597682199816167</v>
+        <v>0.09136003670652709</v>
       </c>
       <c r="T12">
-        <v>0.09597682199816168</v>
+        <v>0.09136003670652708</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I13">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J13">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>98425.06996484974</v>
+        <v>137909.135892077</v>
       </c>
       <c r="R13">
-        <v>885825.6296836478</v>
+        <v>1241182.223028693</v>
       </c>
       <c r="S13">
-        <v>0.1259956658061495</v>
+        <v>0.1528532320264622</v>
       </c>
       <c r="T13">
-        <v>0.1259956658061495</v>
+        <v>0.1528532320264622</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H14">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I14">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J14">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>92.47112426013533</v>
+        <v>20.34629467271333</v>
       </c>
       <c r="R14">
-        <v>832.2401183412179</v>
+        <v>183.11665205442</v>
       </c>
       <c r="S14">
-        <v>0.0001183739150316053</v>
+        <v>2.255105784232308E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001183739150316053</v>
+        <v>2.255105784232308E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H15">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I15">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J15">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>142.0637311398809</v>
+        <v>16.75531056798667</v>
       </c>
       <c r="R15">
-        <v>1278.573580258928</v>
+        <v>150.79779511188</v>
       </c>
       <c r="S15">
-        <v>0.0001818582846653548</v>
+        <v>1.857094787344713E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001818582846653548</v>
+        <v>1.857094787344713E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H16">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I16">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J16">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>70.98825320589688</v>
+        <v>9.666669163433335</v>
       </c>
       <c r="R16">
-        <v>638.8942788530719</v>
+        <v>87.00002247090001</v>
       </c>
       <c r="S16">
-        <v>9.087331337723941E-05</v>
+        <v>1.071416781059108E-05</v>
       </c>
       <c r="T16">
-        <v>9.08733133772394E-05</v>
+        <v>1.071416781059108E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H17">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I17">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J17">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>112.9904215998389</v>
+        <v>9.770630996571668</v>
       </c>
       <c r="R17">
-        <v>1016.91379439855</v>
+        <v>87.93567896914502</v>
       </c>
       <c r="S17">
-        <v>0.000144641029000776</v>
+        <v>1.082939514560263E-05</v>
       </c>
       <c r="T17">
-        <v>0.000144641029000776</v>
+        <v>1.082939514560263E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H18">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I18">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J18">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>56.75754454103866</v>
+        <v>7.359546417731667</v>
       </c>
       <c r="R18">
-        <v>510.817900869348</v>
+        <v>66.23591775958501</v>
       </c>
       <c r="S18">
-        <v>7.265633254336767E-05</v>
+        <v>8.157040858260392E-06</v>
       </c>
       <c r="T18">
-        <v>7.265633254336767E-05</v>
+        <v>8.157040858260392E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H19">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I19">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J19">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>74.50970416698445</v>
+        <v>12.31315678881167</v>
       </c>
       <c r="R19">
-        <v>670.58733750286</v>
+        <v>110.818411099305</v>
       </c>
       <c r="S19">
-        <v>9.538118478240461E-05</v>
+        <v>1.364743386610231E-05</v>
       </c>
       <c r="T19">
-        <v>9.538118478240463E-05</v>
+        <v>1.364743386610231E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H20">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I20">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J20">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>7876.114136856002</v>
+        <v>7765.351609354232</v>
       </c>
       <c r="R20">
-        <v>70885.02723170402</v>
+        <v>69888.16448418808</v>
       </c>
       <c r="S20">
-        <v>0.01008235244326263</v>
+        <v>0.008606819871894185</v>
       </c>
       <c r="T20">
-        <v>0.01008235244326263</v>
+        <v>0.008606819871894182</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H21">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I21">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J21">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>12100.10335786187</v>
+        <v>6394.81930136589</v>
       </c>
       <c r="R21">
-        <v>108900.9302207569</v>
+        <v>57553.37371229301</v>
       </c>
       <c r="S21">
-        <v>0.01548955545006464</v>
+        <v>0.007087774077592025</v>
       </c>
       <c r="T21">
-        <v>0.01548955545006464</v>
+        <v>0.007087774077592022</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H22">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I22">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J22">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>6046.337049529236</v>
+        <v>3689.373723955383</v>
       </c>
       <c r="R22">
-        <v>54417.03344576312</v>
+        <v>33204.36351559844</v>
       </c>
       <c r="S22">
-        <v>0.007740022562502513</v>
+        <v>0.004089161274285697</v>
       </c>
       <c r="T22">
-        <v>0.007740022562502513</v>
+        <v>0.004089161274285696</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H23">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I23">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J23">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>9623.820019623805</v>
+        <v>3729.051719445877</v>
       </c>
       <c r="R23">
-        <v>86614.38017661424</v>
+        <v>33561.46547501289</v>
       </c>
       <c r="S23">
-        <v>0.01231962152939378</v>
+        <v>0.00413313885279652</v>
       </c>
       <c r="T23">
-        <v>0.01231962152939378</v>
+        <v>0.004133138852796518</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H24">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I24">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J24">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>4834.253963165286</v>
+        <v>2808.838982151065</v>
       </c>
       <c r="R24">
-        <v>43508.28566848757</v>
+        <v>25279.55083935959</v>
       </c>
       <c r="S24">
-        <v>0.006188413652970238</v>
+        <v>0.003113210113938323</v>
       </c>
       <c r="T24">
-        <v>0.006188413652970239</v>
+        <v>0.003113210113938322</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H25">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I25">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J25">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>6346.272298708678</v>
+        <v>4699.430211952127</v>
       </c>
       <c r="R25">
-        <v>57116.45068837811</v>
+        <v>42294.87190756915</v>
       </c>
       <c r="S25">
-        <v>0.008123974958295508</v>
+        <v>0.005208669403467369</v>
       </c>
       <c r="T25">
-        <v>0.00812397495829551</v>
+        <v>0.005208669403467366</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H26">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I26">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J26">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>42.21197205407466</v>
+        <v>122.6999442686987</v>
       </c>
       <c r="R26">
-        <v>379.9077484866719</v>
+        <v>1104.299498418288</v>
       </c>
       <c r="S26">
-        <v>5.403628898453516E-05</v>
+        <v>0.0001359959434856764</v>
       </c>
       <c r="T26">
-        <v>5.403628898453516E-05</v>
+        <v>0.0001359959434856764</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H27">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I27">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J27">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>64.8504092142791</v>
+        <v>101.0442297217813</v>
       </c>
       <c r="R27">
-        <v>583.6536829285119</v>
+        <v>909.3980674960319</v>
       </c>
       <c r="S27">
-        <v>8.301615116628707E-05</v>
+        <v>0.0001119935745423368</v>
       </c>
       <c r="T27">
-        <v>8.301615116628708E-05</v>
+        <v>0.0001119935745423368</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H28">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I28">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J28">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>32.40529607994311</v>
+        <v>58.29561532930666</v>
       </c>
       <c r="R28">
-        <v>291.647664719488</v>
+        <v>524.66053796376</v>
       </c>
       <c r="S28">
-        <v>4.148259032679339E-05</v>
+        <v>6.461263902798351E-05</v>
       </c>
       <c r="T28">
-        <v>4.148259032679339E-05</v>
+        <v>6.461263902798349E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H29">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I29">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J29">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>51.57878804991111</v>
+        <v>58.92256541222534</v>
       </c>
       <c r="R29">
-        <v>464.2090924492</v>
+        <v>530.303088710028</v>
       </c>
       <c r="S29">
-        <v>6.602691513598802E-05</v>
+        <v>6.530752661373687E-05</v>
       </c>
       <c r="T29">
-        <v>6.602691513598802E-05</v>
+        <v>6.530752661373686E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H30">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I30">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J30">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>25.90914626802133</v>
+        <v>44.38232856764933</v>
       </c>
       <c r="R30">
-        <v>233.182316412192</v>
+        <v>399.440957108844</v>
       </c>
       <c r="S30">
-        <v>3.316675452376189E-05</v>
+        <v>4.91916820632862E-05</v>
       </c>
       <c r="T30">
-        <v>3.316675452376189E-05</v>
+        <v>4.919168206328619E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H31">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I31">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J31">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>34.01279669971556</v>
+        <v>74.25546892256133</v>
       </c>
       <c r="R31">
-        <v>306.11517029744</v>
+        <v>668.2992203030519</v>
       </c>
       <c r="S31">
-        <v>4.354038018606764E-05</v>
+        <v>8.230193269673077E-05</v>
       </c>
       <c r="T31">
-        <v>4.354038018606765E-05</v>
+        <v>8.230193269673075E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H32">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I32">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J32">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>212.9870148414019</v>
+        <v>28.17484450787244</v>
       </c>
       <c r="R32">
-        <v>1916.883133572617</v>
+        <v>253.573600570852</v>
       </c>
       <c r="S32">
-        <v>0.0002726484294356137</v>
+        <v>3.122792421991196E-05</v>
       </c>
       <c r="T32">
-        <v>0.0002726484294356138</v>
+        <v>3.122792421991195E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H33">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I33">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J33">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>327.2127407859252</v>
+        <v>23.20217403354755</v>
       </c>
       <c r="R33">
-        <v>2944.914667073328</v>
+        <v>208.819566301928</v>
       </c>
       <c r="S33">
-        <v>0.0004188707932877373</v>
+        <v>2.571640571980374E-05</v>
       </c>
       <c r="T33">
-        <v>0.0004188707932877374</v>
+        <v>2.571640571980373E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H34">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I34">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J34">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>163.5059188487413</v>
+        <v>13.38606881350444</v>
       </c>
       <c r="R34">
-        <v>1471.553269638672</v>
+        <v>120.47461932154</v>
       </c>
       <c r="S34">
-        <v>0.0002093068068526707</v>
+        <v>1.483660867742653E-05</v>
       </c>
       <c r="T34">
-        <v>0.0002093068068526707</v>
+        <v>1.483660867742653E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H35">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I35">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J35">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>260.2487294792833</v>
+        <v>13.53003156104856</v>
       </c>
       <c r="R35">
-        <v>2342.23856531355</v>
+        <v>121.770284049437</v>
       </c>
       <c r="S35">
-        <v>0.0003331489828522047</v>
+        <v>1.499617150197173E-05</v>
       </c>
       <c r="T35">
-        <v>0.0003331489828522048</v>
+        <v>1.499617150197172E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H36">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I36">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J36">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>130.728593149972</v>
+        <v>10.19124510401122</v>
       </c>
       <c r="R36">
-        <v>1176.557338349748</v>
+        <v>91.721205936101</v>
       </c>
       <c r="S36">
-        <v>0.000167347974857567</v>
+        <v>1.12955877973235E-05</v>
       </c>
       <c r="T36">
-        <v>0.000167347974857567</v>
+        <v>1.12955877973235E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H37">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I37">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J37">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>171.6168111312066</v>
+        <v>17.05083326012589</v>
       </c>
       <c r="R37">
-        <v>1544.55130018086</v>
+        <v>153.457499341133</v>
       </c>
       <c r="S37">
-        <v>0.0002196897029357128</v>
+        <v>1.889849396630346E-05</v>
       </c>
       <c r="T37">
-        <v>0.0002196897029357128</v>
+        <v>1.889849396630346E-05</v>
       </c>
     </row>
   </sheetData>
